--- a/biology/Neurosciences/Voie_méso-limbique/Voie_méso-limbique.xlsx
+++ b/biology/Neurosciences/Voie_méso-limbique/Voie_méso-limbique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Voie_m%C3%A9so-limbique</t>
+          <t>Voie_méso-limbique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le circuit mésolimbique relie l'aire tegmentaire ventrale (ATV) dans le mésencéphale à des régions du système limbique comme le noyau accumbens (noyau gris) et le cortex orbitofrontal.  La stimulation des différentes portions du circuit mésolimbique a un effet renforçateur.  Le circuit mésolimbique utilise la dopamine comme neurotransmetteur.  La stimulation de l'aire tegmentaire ventrale produit une libération de dopamine dans le noyau accumbens.  Plusieurs études ont établi un lien entre les propriétés renforçantes  de l'activation du système mésolimbique et la dépendance à plusieurs drogues. Les drogues, telles que les amphétamines, la cocaïne, la nicotine, les opiacés naturels et de synthèse (fentanyl, etc. ) ainsi que l'alcool, produisent des augmentations rapides et très élevées du taux de dopamine dans le circuit de la récompense.  
  Portail des neurosciences   Portail de l’anatomie                    </t>
